--- a/07 Project Office/Project Plan.xlsx
+++ b/07 Project Office/Project Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickNJelly\OneDrive\Documents\Triple-Threat-plus-One\06 Project Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickNJelly\OneDrive\Documents\Triple-Threat-plus-One\07 Project Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C9F450-2283-443D-92EF-975819D07D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E043D-B5B2-43AF-88DA-20C32690B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Task ID</t>
   </si>
@@ -248,9 +248,6 @@
   <si>
     <t>Actual Day(s) Used</t>
   </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
 </sst>
 </file>
 
@@ -319,7 +316,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,12 +339,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -404,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,6 +453,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,18 +496,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,10 +739,10 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -773,20 +761,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -800,40 +788,40 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="5"/>
@@ -852,18 +840,18 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -880,10 +868,10 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="13.2">
-      <c r="A4" s="34">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6">
@@ -933,8 +921,8 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="13.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6">
         <v>1.2</v>
       </c>
@@ -981,10 +969,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="13.2">
-      <c r="A6" s="34">
+      <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6">
@@ -1033,8 +1021,8 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="13.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -1081,8 +1069,8 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="13.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -1129,8 +1117,8 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="13.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6">
         <v>2.4</v>
       </c>
@@ -1283,10 +1271,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="40.799999999999997">
-      <c r="A12" s="34">
+      <c r="A12" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="6">
@@ -1333,8 +1321,8 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="13.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6">
         <v>5.2</v>
       </c>
@@ -1379,10 +1367,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="30.6">
-      <c r="A14" s="34">
+      <c r="A14" s="22">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="6">
@@ -1427,8 +1415,8 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="30.6">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="6">
         <v>6.2</v>
       </c>
@@ -1471,8 +1459,8 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="30.6">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6">
         <v>6.3</v>
       </c>
@@ -1515,10 +1503,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="20.399999999999999">
-      <c r="A17" s="34">
+      <c r="A17" s="22">
         <v>7</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="6">
@@ -1530,7 +1518,7 @@
       <c r="E17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="16"/>
@@ -1563,8 +1551,8 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="13.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6">
         <v>7.2</v>
       </c>
@@ -1574,7 +1562,7 @@
       <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="16"/>
       <c r="H18" s="13">
         <f t="shared" si="0"/>
@@ -1605,8 +1593,8 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="13.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="6">
         <v>7.3</v>
       </c>
@@ -1649,10 +1637,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="30.6">
-      <c r="A20" s="34">
+      <c r="A20" s="22">
         <v>8</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="6">
@@ -1664,7 +1652,7 @@
       <c r="E20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="16"/>
@@ -1677,8 +1665,8 @@
         <v>45786</v>
       </c>
       <c r="J20" s="16"/>
-      <c r="K20" s="36" t="s">
-        <v>66</v>
+      <c r="K20" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="2"/>
@@ -1697,8 +1685,8 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="20.399999999999999">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="6">
         <v>8.1999999999999993</v>
       </c>
@@ -1708,7 +1696,7 @@
       <c r="E21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="16"/>
       <c r="H21" s="13">
         <f t="shared" si="0"/>
@@ -1719,8 +1707,8 @@
         <v>45786</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="36" t="s">
-        <v>66</v>
+      <c r="K21" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
@@ -26065,20 +26053,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -26092,6 +26066,20 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:L2 A3:G3 K3:L3">
     <cfRule type="top10" dxfId="1" priority="6" rank="10"/>
